--- a/Test Data/Input.xlsx
+++ b/Test Data/Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19545" windowHeight="9675"/>
+    <workbookView windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
@@ -770,38 +770,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,6 +794,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -831,15 +809,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,7 +848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,24 +862,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,9 +877,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +970,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1030,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,163 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,6 +1194,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1214,30 +1229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1249,6 +1240,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,7 +1279,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,128 +1297,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1832,81 +1832,81 @@
   <dimension ref="A1:XFD53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK2" sqref="BK2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78095238095238" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7809523809524" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.2190476190476" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.2761904761905" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.4952380952381" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.9238095238095" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.7809523809524" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.6380952380952" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.5333333333333" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.1047619047619" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.7809523809524" style="11" customWidth="1"/>
-    <col min="11" max="11" width="23.0285714285714" style="11" customWidth="1"/>
-    <col min="12" max="12" width="28.9333333333333" style="11" customWidth="1"/>
-    <col min="13" max="13" width="21.4285714285714" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.2380952380952" style="11" customWidth="1"/>
-    <col min="15" max="15" width="23.752380952381" style="11" customWidth="1"/>
-    <col min="16" max="16" width="18.3904761904762" style="11" customWidth="1"/>
-    <col min="17" max="17" width="20.1809523809524" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.7777777777778" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.2222222222222" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.2777777777778" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.4907407407407" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.9259259259259" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.7777777777778" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.6388888888889" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.537037037037" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.1018518518519" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.7777777777778" style="11" customWidth="1"/>
+    <col min="11" max="11" width="23.0277777777778" style="11" customWidth="1"/>
+    <col min="12" max="12" width="28.9351851851852" style="11" customWidth="1"/>
+    <col min="13" max="13" width="21.4259259259259" style="11" customWidth="1"/>
+    <col min="14" max="14" width="21.2407407407407" style="11" customWidth="1"/>
+    <col min="15" max="15" width="23.75" style="11" customWidth="1"/>
+    <col min="16" max="16" width="18.3888888888889" style="11" customWidth="1"/>
+    <col min="17" max="17" width="20.1851851851852" style="11" customWidth="1"/>
     <col min="18" max="18" width="22" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17.2190476190476" style="11" customWidth="1"/>
-    <col min="20" max="20" width="21.4380952380952" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.2222222222222" style="11" customWidth="1"/>
+    <col min="20" max="20" width="21.4351851851852" style="11" customWidth="1"/>
     <col min="21" max="21" width="25" style="11" customWidth="1"/>
-    <col min="22" max="22" width="27.7809523809524" style="11" customWidth="1"/>
-    <col min="23" max="23" width="21.247619047619" style="11" customWidth="1"/>
-    <col min="24" max="24" width="20.7142857142857" style="11" customWidth="1"/>
-    <col min="25" max="25" width="12.4380952380952" style="11" customWidth="1"/>
-    <col min="26" max="26" width="20.2190476190476" style="11" customWidth="1"/>
-    <col min="27" max="27" width="24.8857142857143" style="11" customWidth="1"/>
-    <col min="28" max="28" width="21.552380952381" style="11" customWidth="1"/>
-    <col min="29" max="29" width="19.4666666666667" style="11" customWidth="1"/>
-    <col min="30" max="30" width="22.4380952380952" style="11" customWidth="1"/>
-    <col min="31" max="31" width="21.7809523809524" style="11" customWidth="1"/>
-    <col min="32" max="32" width="20.552380952381" style="11" customWidth="1"/>
-    <col min="33" max="33" width="20.8857142857143" style="11" customWidth="1"/>
-    <col min="34" max="34" width="19.647619047619" style="11" customWidth="1"/>
-    <col min="35" max="35" width="25.352380952381" style="11" customWidth="1"/>
-    <col min="36" max="36" width="21.2380952380952" style="11" customWidth="1"/>
-    <col min="37" max="37" width="19.1047619047619" style="11" customWidth="1"/>
+    <col min="22" max="22" width="27.7777777777778" style="11" customWidth="1"/>
+    <col min="23" max="23" width="21.25" style="11" customWidth="1"/>
+    <col min="24" max="24" width="20.712962962963" style="11" customWidth="1"/>
+    <col min="25" max="25" width="12.4351851851852" style="11" customWidth="1"/>
+    <col min="26" max="26" width="20.2222222222222" style="11" customWidth="1"/>
+    <col min="27" max="27" width="24.8888888888889" style="11" customWidth="1"/>
+    <col min="28" max="28" width="21.5555555555556" style="11" customWidth="1"/>
+    <col min="29" max="29" width="19.462962962963" style="11" customWidth="1"/>
+    <col min="30" max="30" width="22.4351851851852" style="11" customWidth="1"/>
+    <col min="31" max="31" width="21.7777777777778" style="11" customWidth="1"/>
+    <col min="32" max="32" width="20.5555555555556" style="11" customWidth="1"/>
+    <col min="33" max="33" width="20.8888888888889" style="11" customWidth="1"/>
+    <col min="34" max="34" width="19.6481481481481" style="11" customWidth="1"/>
+    <col min="35" max="35" width="25.3518518518519" style="11" customWidth="1"/>
+    <col min="36" max="36" width="21.2407407407407" style="11" customWidth="1"/>
+    <col min="37" max="37" width="19.1018518518519" style="11" customWidth="1"/>
     <col min="38" max="38" width="20.6666666666667" style="11" customWidth="1"/>
-    <col min="39" max="39" width="19.2761904761905" style="11" customWidth="1"/>
-    <col min="40" max="40" width="24.9904761904762" style="11" customWidth="1"/>
-    <col min="41" max="41" width="25.352380952381" style="11" customWidth="1"/>
-    <col min="42" max="42" width="21.6095238095238" style="11" customWidth="1"/>
-    <col min="43" max="43" width="24.6285714285714" style="11" customWidth="1"/>
-    <col min="44" max="44" width="26.9619047619048" style="11" customWidth="1"/>
-    <col min="45" max="45" width="26.6" style="11" customWidth="1"/>
-    <col min="46" max="46" width="21.6" style="11" customWidth="1"/>
-    <col min="47" max="47" width="26.7809523809524" style="11" customWidth="1"/>
-    <col min="48" max="48" width="25.3619047619048" style="11" customWidth="1"/>
-    <col min="49" max="49" width="26.6" style="11" customWidth="1"/>
-    <col min="50" max="51" width="33.8857142857143" style="11" customWidth="1"/>
-    <col min="52" max="52" width="24.2857142857143" style="11" customWidth="1"/>
-    <col min="53" max="53" width="26.6" style="11" customWidth="1"/>
-    <col min="54" max="54" width="24.2857142857143" style="11" customWidth="1"/>
-    <col min="55" max="55" width="26.4285714285714" style="11" customWidth="1"/>
-    <col min="56" max="56" width="28.2095238095238" style="11" customWidth="1"/>
-    <col min="57" max="57" width="27.3142857142857" style="11" customWidth="1"/>
-    <col min="58" max="58" width="27.1428571428571" style="11" customWidth="1"/>
-    <col min="59" max="59" width="25.8857142857143" style="11" customWidth="1"/>
-    <col min="60" max="60" width="24.0952380952381" style="11" customWidth="1"/>
-    <col min="61" max="61" width="28.752380952381" style="11" customWidth="1"/>
-    <col min="62" max="62" width="23.9238095238095" style="11" customWidth="1"/>
-    <col min="63" max="132" width="23.3904761904762" style="11" customWidth="1"/>
-    <col min="133" max="16384" width="8.78095238095238" style="11"/>
+    <col min="39" max="39" width="19.2777777777778" style="11" customWidth="1"/>
+    <col min="40" max="40" width="24.9907407407407" style="11" customWidth="1"/>
+    <col min="41" max="41" width="25.3518518518519" style="11" customWidth="1"/>
+    <col min="42" max="42" width="21.6111111111111" style="11" customWidth="1"/>
+    <col min="43" max="43" width="24.6296296296296" style="11" customWidth="1"/>
+    <col min="44" max="44" width="26.962962962963" style="11" customWidth="1"/>
+    <col min="45" max="45" width="26.6018518518519" style="11" customWidth="1"/>
+    <col min="46" max="46" width="21.6018518518519" style="11" customWidth="1"/>
+    <col min="47" max="47" width="26.7777777777778" style="11" customWidth="1"/>
+    <col min="48" max="48" width="25.3611111111111" style="11" customWidth="1"/>
+    <col min="49" max="49" width="26.6018518518519" style="11" customWidth="1"/>
+    <col min="50" max="51" width="33.8888888888889" style="11" customWidth="1"/>
+    <col min="52" max="52" width="24.287037037037" style="11" customWidth="1"/>
+    <col min="53" max="53" width="26.6018518518519" style="11" customWidth="1"/>
+    <col min="54" max="54" width="24.287037037037" style="11" customWidth="1"/>
+    <col min="55" max="55" width="26.4259259259259" style="11" customWidth="1"/>
+    <col min="56" max="56" width="28.212962962963" style="11" customWidth="1"/>
+    <col min="57" max="57" width="27.3148148148148" style="11" customWidth="1"/>
+    <col min="58" max="58" width="27.1388888888889" style="11" customWidth="1"/>
+    <col min="59" max="59" width="25.8888888888889" style="11" customWidth="1"/>
+    <col min="60" max="60" width="24.0925925925926" style="11" customWidth="1"/>
+    <col min="61" max="61" width="28.75" style="11" customWidth="1"/>
+    <col min="62" max="62" width="23.9259259259259" style="11" customWidth="1"/>
+    <col min="63" max="132" width="23.3888888888889" style="11" customWidth="1"/>
+    <col min="133" max="16384" width="8.77777777777778" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:132">
+    <row r="1" ht="43.2" spans="1:132">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="EA1" s="12"/>
       <c r="EB1" s="12"/>
     </row>
-    <row r="2" s="11" customFormat="1" ht="315" spans="1:132">
+    <row r="2" s="11" customFormat="1" ht="259.2" spans="1:132">
       <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
@@ -21909,14 +21909,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.4380952380952" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7809523809524" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.2190476190476" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.552380952381" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.552380952381" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.21904761904762" style="2"/>
+    <col min="1" max="1" width="15.4351851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.22222222222222" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -22261,7 +22261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
+    <row r="27" ht="15" customHeight="1" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>155</v>
       </c>

--- a/Test Data/Input.xlsx
+++ b/Test Data/Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView windowWidth="19545" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="227">
   <si>
     <t>Login</t>
   </si>
@@ -165,10 +165,70 @@
     <t>Oh Jobs PH Admin URL</t>
   </si>
   <si>
+    <t>Get Nada URL</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Employer Name</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Employer Type</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Employer Industry</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Representative</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Country</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Address</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Email Address</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Password</t>
+  </si>
+  <si>
+    <t>Employer (Sign Up) Confirm Password</t>
+  </si>
+  <si>
     <t>Employer Username</t>
   </si>
   <si>
     <t>Employer Password</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Representative</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Details</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Contact Details</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Business Hours</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Fax Number</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Website</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Country</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Address</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Industry</t>
+  </si>
+  <si>
+    <t>Employer (Edit Profile) Success Message</t>
   </si>
   <si>
     <t>Job Title</t>
@@ -261,6 +321,9 @@
     <t>Jobseeker (Sign Up) Success Message</t>
   </si>
   <si>
+    <t>Jobseeker (Login) Success Message</t>
+  </si>
+  <si>
     <t>Jobseeker(Personal Information) First Name</t>
   </si>
   <si>
@@ -333,16 +396,49 @@
     <t>Jobseeker(Job Prerference) Job Preference</t>
   </si>
   <si>
+    <t>Jobseeker(Other Information) Other Information</t>
+  </si>
+  <si>
+    <t>Jobseeker(Other Information) About Other Information</t>
+  </si>
+  <si>
     <t>Oh Jobs PH Test Data</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>http://beta-ohjobsph.ml/jobs-list</t>
+    <t>http://beta-ohjobsph.ml/</t>
   </si>
   <si>
     <t>http://beta-ohjobsph.ml/admin</t>
+  </si>
+  <si>
+    <t>https://getnada.com/</t>
+  </si>
+  <si>
+    <t>Paul Solution</t>
+  </si>
+  <si>
+    <t>Company / Local Agency</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Aron Paul Braza</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Malolos, Bulacan</t>
+  </si>
+  <si>
+    <t>wog.aron@zetmail.com</t>
+  </si>
+  <si>
+    <t>Wog12345</t>
   </si>
   <si>
     <t>info@weboutsourcing-gateway.com</t>
@@ -351,10 +447,31 @@
     <t>qwertyui</t>
   </si>
   <si>
-    <t>IT Application Support</t>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a,</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>09123456789,09789456123</t>
+  </si>
+  <si>
+    <t>11:00 AM - 08:00 PM</t>
+  </si>
+  <si>
+    <t>https://www.weboutsourcing-gateway.com/</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Saving changes to your profile...</t>
+  </si>
+  <si>
+    <t>IT Application Support</t>
   </si>
   <si>
     <t>NCR</t>
@@ -384,19 +501,10 @@
     <t>Bachelor's / College Degree</t>
   </si>
   <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
     <t>Hardware and Software Troubleshooting, QA Testing</t>
   </si>
   <si>
     <t>IT Jobs, Fresh Grad</t>
-  </si>
-  <si>
-    <t>02/18/2020</t>
-  </si>
-  <si>
-    <t>02/20/2020</t>
   </si>
   <si>
     <t>Submitting your job post...,Your Job has been submitted. Please wait for Oh! Jobs approval.</t>
@@ -408,7 +516,7 @@
     <t>secret123Q</t>
   </si>
   <si>
-    <t>Sending email notification to Web Outsourcing Gateway Inc. ,You have successfully approved the job. The employer will be notified of this action.</t>
+    <t>Sending email notification to Paul Solution ,You have successfully approved the job. The employer will be notified of this action.</t>
   </si>
   <si>
     <t>Aron Paul</t>
@@ -423,16 +531,13 @@
     <t>May,28,1998</t>
   </si>
   <si>
-    <t>wog.aron@zetmail.com</t>
-  </si>
-  <si>
     <t>aronpaulbraza</t>
   </si>
   <si>
-    <t>Wog12345</t>
+    <t xml:space="preserve">Creating your Oh Jobs account...Please wait.  ,Your Oh! Jobs PH account has been successfully created! Check your email and confirm to activate your account.   </t>
   </si>
   <si>
-    <t xml:space="preserve">Creating your Oh Jobs account...Please wait.  ,Your Oh! Jobs PH account has been successfully created! Check your email and confirm to activate your account.   </t>
+    <t xml:space="preserve">You have successfully logged in  </t>
   </si>
   <si>
     <t>Juan Pablo</t>
@@ -460,9 +565,6 @@
   </si>
   <si>
     <t>09789456123</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a,</t>
   </si>
   <si>
     <t>Bachelor of Science in Information Technology</t>
@@ -501,7 +603,26 @@
     <t>Information Technology,Sea-Based Jobs,Customer Service/BPO,Education,Telecommunications/Consulting,Agriculture,Engineering</t>
   </si>
   <si>
+    <t>Basic Selenium using C#</t>
+  </si>
+  <si>
+    <t>Learn how to locate webelement.
+Create a page object model.</t>
+  </si>
+  <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Sample Test Data</t>
+  </si>
+  <si>
+    <t>Aron Paul G. Braza</t>
   </si>
   <si>
     <t>model ID</t>
@@ -718,11 +839,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -770,16 +892,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -787,15 +929,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,52 +945,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -870,8 +960,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,6 +970,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,15 +1014,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,13 +1092,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,103 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,49 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,17 +1301,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,42 +1344,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,16 +1387,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,132 +1419,132 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1467,9 +1589,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,11 +1613,8 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1506,7 +1622,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
@@ -1836,77 +1952,77 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78095238095238" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7777777777778" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.2222222222222" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.2777777777778" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.4907407407407" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.9259259259259" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.7777777777778" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.6388888888889" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.537037037037" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.1018518518519" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.7777777777778" style="11" customWidth="1"/>
-    <col min="11" max="11" width="23.0277777777778" style="11" customWidth="1"/>
-    <col min="12" max="12" width="28.9351851851852" style="11" customWidth="1"/>
-    <col min="13" max="13" width="21.4259259259259" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.2407407407407" style="11" customWidth="1"/>
-    <col min="15" max="15" width="23.75" style="11" customWidth="1"/>
-    <col min="16" max="16" width="18.3888888888889" style="11" customWidth="1"/>
-    <col min="17" max="17" width="20.1851851851852" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.7809523809524" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.2190476190476" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.2761904761905" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.4952380952381" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.9238095238095" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.6" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.6380952380952" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.5333333333333" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.1047619047619" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.7809523809524" style="11" customWidth="1"/>
+    <col min="11" max="11" width="23.0285714285714" style="11" customWidth="1"/>
+    <col min="12" max="12" width="28.9333333333333" style="11" customWidth="1"/>
+    <col min="13" max="13" width="23.0285714285714" style="11" customWidth="1"/>
+    <col min="14" max="14" width="23.3904761904762" style="11" customWidth="1"/>
+    <col min="15" max="15" width="26.6" style="11" customWidth="1"/>
+    <col min="16" max="16" width="23.0285714285714" style="11" customWidth="1"/>
+    <col min="17" max="17" width="20.1809523809524" style="11" customWidth="1"/>
     <col min="18" max="18" width="22" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17.2222222222222" style="11" customWidth="1"/>
-    <col min="20" max="20" width="21.4351851851852" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.2190476190476" style="11" customWidth="1"/>
+    <col min="20" max="20" width="22.6857142857143" style="11" customWidth="1"/>
     <col min="21" max="21" width="25" style="11" customWidth="1"/>
-    <col min="22" max="22" width="27.7777777777778" style="11" customWidth="1"/>
-    <col min="23" max="23" width="21.25" style="11" customWidth="1"/>
-    <col min="24" max="24" width="20.712962962963" style="11" customWidth="1"/>
-    <col min="25" max="25" width="12.4351851851852" style="11" customWidth="1"/>
-    <col min="26" max="26" width="20.2222222222222" style="11" customWidth="1"/>
-    <col min="27" max="27" width="24.8888888888889" style="11" customWidth="1"/>
-    <col min="28" max="28" width="21.5555555555556" style="11" customWidth="1"/>
-    <col min="29" max="29" width="19.462962962963" style="11" customWidth="1"/>
-    <col min="30" max="30" width="22.4351851851852" style="11" customWidth="1"/>
-    <col min="31" max="31" width="21.7777777777778" style="11" customWidth="1"/>
-    <col min="32" max="32" width="20.5555555555556" style="11" customWidth="1"/>
-    <col min="33" max="33" width="20.8888888888889" style="11" customWidth="1"/>
-    <col min="34" max="34" width="19.6481481481481" style="11" customWidth="1"/>
-    <col min="35" max="35" width="25.3518518518519" style="11" customWidth="1"/>
-    <col min="36" max="36" width="21.2407407407407" style="11" customWidth="1"/>
-    <col min="37" max="37" width="19.1018518518519" style="11" customWidth="1"/>
+    <col min="22" max="22" width="27.7809523809524" style="11" customWidth="1"/>
+    <col min="23" max="23" width="24.8190476190476" style="11" customWidth="1"/>
+    <col min="24" max="24" width="29.1047619047619" style="11" customWidth="1"/>
+    <col min="25" max="25" width="26.4285714285714" style="11" customWidth="1"/>
+    <col min="26" max="26" width="24.0952380952381" style="11" customWidth="1"/>
+    <col min="27" max="27" width="28.5619047619048" style="11" customWidth="1"/>
+    <col min="28" max="28" width="25.7142857142857" style="11" customWidth="1"/>
+    <col min="29" max="29" width="19.4666666666667" style="11" customWidth="1"/>
+    <col min="30" max="30" width="22.4380952380952" style="11" customWidth="1"/>
+    <col min="31" max="31" width="21.7809523809524" style="11" customWidth="1"/>
+    <col min="32" max="32" width="20.552380952381" style="11" customWidth="1"/>
+    <col min="33" max="33" width="20.8857142857143" style="11" customWidth="1"/>
+    <col min="34" max="34" width="19.647619047619" style="11" customWidth="1"/>
+    <col min="35" max="35" width="25.352380952381" style="11" customWidth="1"/>
+    <col min="36" max="36" width="21.2380952380952" style="11" customWidth="1"/>
+    <col min="37" max="37" width="19.1047619047619" style="11" customWidth="1"/>
     <col min="38" max="38" width="20.6666666666667" style="11" customWidth="1"/>
-    <col min="39" max="39" width="19.2777777777778" style="11" customWidth="1"/>
-    <col min="40" max="40" width="24.9907407407407" style="11" customWidth="1"/>
-    <col min="41" max="41" width="25.3518518518519" style="11" customWidth="1"/>
-    <col min="42" max="42" width="21.6111111111111" style="11" customWidth="1"/>
-    <col min="43" max="43" width="24.6296296296296" style="11" customWidth="1"/>
-    <col min="44" max="44" width="26.962962962963" style="11" customWidth="1"/>
-    <col min="45" max="45" width="26.6018518518519" style="11" customWidth="1"/>
-    <col min="46" max="46" width="21.6018518518519" style="11" customWidth="1"/>
-    <col min="47" max="47" width="26.7777777777778" style="11" customWidth="1"/>
-    <col min="48" max="48" width="25.3611111111111" style="11" customWidth="1"/>
-    <col min="49" max="49" width="26.6018518518519" style="11" customWidth="1"/>
-    <col min="50" max="51" width="33.8888888888889" style="11" customWidth="1"/>
-    <col min="52" max="52" width="24.287037037037" style="11" customWidth="1"/>
-    <col min="53" max="53" width="26.6018518518519" style="11" customWidth="1"/>
-    <col min="54" max="54" width="24.287037037037" style="11" customWidth="1"/>
-    <col min="55" max="55" width="26.4259259259259" style="11" customWidth="1"/>
-    <col min="56" max="56" width="28.212962962963" style="11" customWidth="1"/>
-    <col min="57" max="57" width="27.3148148148148" style="11" customWidth="1"/>
-    <col min="58" max="58" width="27.1388888888889" style="11" customWidth="1"/>
-    <col min="59" max="59" width="25.8888888888889" style="11" customWidth="1"/>
-    <col min="60" max="60" width="24.0925925925926" style="11" customWidth="1"/>
-    <col min="61" max="61" width="28.75" style="11" customWidth="1"/>
-    <col min="62" max="62" width="23.9259259259259" style="11" customWidth="1"/>
-    <col min="63" max="132" width="23.3888888888889" style="11" customWidth="1"/>
-    <col min="133" max="16384" width="8.77777777777778" style="11"/>
+    <col min="39" max="39" width="19.2761904761905" style="11" customWidth="1"/>
+    <col min="40" max="40" width="24.9904761904762" style="11" customWidth="1"/>
+    <col min="41" max="41" width="25.352380952381" style="11" customWidth="1"/>
+    <col min="42" max="42" width="21.6095238095238" style="11" customWidth="1"/>
+    <col min="43" max="43" width="24.6285714285714" style="11" customWidth="1"/>
+    <col min="44" max="44" width="26.9619047619048" style="11" customWidth="1"/>
+    <col min="45" max="45" width="26.6" style="11" customWidth="1"/>
+    <col min="46" max="46" width="21.6" style="11" customWidth="1"/>
+    <col min="47" max="47" width="26.7809523809524" style="11" customWidth="1"/>
+    <col min="48" max="48" width="25.3619047619048" style="11" customWidth="1"/>
+    <col min="49" max="49" width="26.6" style="11" customWidth="1"/>
+    <col min="50" max="51" width="33.8857142857143" style="11" customWidth="1"/>
+    <col min="52" max="52" width="24.2857142857143" style="11" customWidth="1"/>
+    <col min="53" max="53" width="26.6" style="11" customWidth="1"/>
+    <col min="54" max="54" width="24.2857142857143" style="11" customWidth="1"/>
+    <col min="55" max="55" width="26.4285714285714" style="11" customWidth="1"/>
+    <col min="56" max="56" width="28.2095238095238" style="11" customWidth="1"/>
+    <col min="57" max="57" width="27.3142857142857" style="11" customWidth="1"/>
+    <col min="58" max="58" width="27.1428571428571" style="11" customWidth="1"/>
+    <col min="59" max="59" width="25.8857142857143" style="11" customWidth="1"/>
+    <col min="60" max="60" width="24.0952380952381" style="11" customWidth="1"/>
+    <col min="61" max="61" width="28.752380952381" style="11" customWidth="1"/>
+    <col min="62" max="62" width="23.9238095238095" style="11" customWidth="1"/>
+    <col min="63" max="132" width="23.3904761904762" style="11" customWidth="1"/>
+    <col min="133" max="16384" width="8.78095238095238" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.2" spans="1:132">
+    <row r="1" ht="45" spans="1:132">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1919,201 +2035,247 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BI1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BK1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BL1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
+      <c r="BM1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI1" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="CJ1" s="12"/>
       <c r="CK1" s="12"/>
       <c r="CL1" s="12"/>
@@ -2160,259 +2322,307 @@
       <c r="EA1" s="12"/>
       <c r="EB1" s="12"/>
     </row>
-    <row r="2" s="11" customFormat="1" ht="259.2" spans="1:132">
+    <row r="2" s="11" customFormat="1" ht="409.5" spans="1:132">
       <c r="A2" s="13" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>66</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="29">
+        <v>88</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="29">
+        <v>123456789</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="28">
         <v>10</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF2" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH2" s="35" t="s">
+      <c r="AG2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AQ2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2" s="33">
+        <f ca="1">(TODAY())</f>
+        <v>43896</v>
+      </c>
+      <c r="AT2" s="33">
+        <f ca="1">(TODAY()+DAY(30))</f>
+        <v>43926</v>
+      </c>
+      <c r="AU2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC2" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS2" s="25" t="s">
+      <c r="BO2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ2" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD2" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF2" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH2" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BI2" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="BK2" s="25"/>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="25"/>
-      <c r="BW2" s="25"/>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="25"/>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="25"/>
-      <c r="CU2" s="25"/>
-      <c r="CV2" s="25"/>
-      <c r="CW2" s="25"/>
-      <c r="CX2" s="25"/>
-      <c r="CY2" s="25"/>
-      <c r="CZ2" s="25"/>
-      <c r="DA2" s="25"/>
-      <c r="DB2" s="25"/>
-      <c r="DC2" s="25"/>
-      <c r="DD2" s="25"/>
-      <c r="DE2" s="25"/>
-      <c r="DF2" s="25"/>
-      <c r="DG2" s="25"/>
-      <c r="DH2" s="25"/>
-      <c r="DI2" s="25"/>
-      <c r="DJ2" s="25"/>
-      <c r="DK2" s="25"/>
-      <c r="DL2" s="25"/>
-      <c r="DM2" s="25"/>
-      <c r="DN2" s="25"/>
-      <c r="DO2" s="25"/>
-      <c r="DP2" s="25"/>
-      <c r="DQ2" s="25"/>
-      <c r="DR2" s="25"/>
-      <c r="DS2" s="25"/>
-      <c r="DT2" s="25"/>
-      <c r="DU2" s="25"/>
-      <c r="DV2" s="25"/>
-      <c r="DW2" s="25"/>
-      <c r="DX2" s="25"/>
-      <c r="DY2" s="25"/>
-      <c r="DZ2" s="25"/>
-      <c r="EA2" s="25"/>
-      <c r="EB2" s="25"/>
+      <c r="BV2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ2" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="CG2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="CH2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24"/>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="24"/>
+      <c r="CU2" s="24"/>
+      <c r="CV2" s="24"/>
+      <c r="CW2" s="24"/>
+      <c r="CX2" s="24"/>
+      <c r="CY2" s="24"/>
+      <c r="CZ2" s="24"/>
+      <c r="DA2" s="24"/>
+      <c r="DB2" s="24"/>
+      <c r="DC2" s="24"/>
+      <c r="DD2" s="24"/>
+      <c r="DE2" s="24"/>
+      <c r="DF2" s="24"/>
+      <c r="DG2" s="24"/>
+      <c r="DH2" s="24"/>
+      <c r="DI2" s="24"/>
+      <c r="DJ2" s="24"/>
+      <c r="DK2" s="24"/>
+      <c r="DL2" s="24"/>
+      <c r="DM2" s="24"/>
+      <c r="DN2" s="24"/>
+      <c r="DO2" s="24"/>
+      <c r="DP2" s="24"/>
+      <c r="DQ2" s="24"/>
+      <c r="DR2" s="24"/>
+      <c r="DS2" s="24"/>
+      <c r="DT2" s="24"/>
+      <c r="DU2" s="24"/>
+      <c r="DV2" s="24"/>
+      <c r="DW2" s="24"/>
+      <c r="DX2" s="24"/>
+      <c r="DY2" s="24"/>
+      <c r="DZ2" s="24"/>
+      <c r="EA2" s="24"/>
+      <c r="EB2" s="24"/>
     </row>
     <row r="3" spans="1:132">
       <c r="A3" s="19"/>
@@ -2421,132 +2631,132 @@
       <c r="D3" s="14"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="22"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="22"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="20"/>
-      <c r="U3" s="22"/>
+      <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
-      <c r="Y3" s="22"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
-      <c r="AA3" s="22"/>
+      <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
       <c r="AD3" s="20"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
       <c r="AH3" s="20"/>
       <c r="AI3" s="20"/>
       <c r="AJ3" s="20"/>
-      <c r="AK3" s="22"/>
+      <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
-      <c r="AM3" s="22"/>
+      <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
-      <c r="AO3" s="22"/>
+      <c r="AO3" s="20"/>
       <c r="AP3" s="20"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="25"/>
-      <c r="BO3" s="25"/>
-      <c r="BP3" s="25"/>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
-      <c r="CH3" s="25"/>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
-      <c r="CS3" s="25"/>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
-      <c r="CX3" s="25"/>
-      <c r="CY3" s="25"/>
-      <c r="CZ3" s="25"/>
-      <c r="DA3" s="25"/>
-      <c r="DB3" s="25"/>
-      <c r="DC3" s="25"/>
-      <c r="DD3" s="25"/>
-      <c r="DE3" s="25"/>
-      <c r="DF3" s="25"/>
-      <c r="DG3" s="25"/>
-      <c r="DH3" s="25"/>
-      <c r="DI3" s="25"/>
-      <c r="DJ3" s="25"/>
-      <c r="DK3" s="25"/>
-      <c r="DL3" s="25"/>
-      <c r="DM3" s="25"/>
-      <c r="DN3" s="25"/>
-      <c r="DO3" s="25"/>
-      <c r="DP3" s="25"/>
-      <c r="DQ3" s="25"/>
-      <c r="DR3" s="25"/>
-      <c r="DS3" s="25"/>
-      <c r="DT3" s="25"/>
-      <c r="DU3" s="25"/>
-      <c r="DV3" s="25"/>
-      <c r="DW3" s="25"/>
-      <c r="DX3" s="25"/>
-      <c r="DY3" s="25"/>
-      <c r="DZ3" s="25"/>
-      <c r="EA3" s="25"/>
-      <c r="EB3" s="25"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="20"/>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
+      <c r="CX3" s="24"/>
+      <c r="CY3" s="24"/>
+      <c r="CZ3" s="24"/>
+      <c r="DA3" s="24"/>
+      <c r="DB3" s="24"/>
+      <c r="DC3" s="24"/>
+      <c r="DD3" s="24"/>
+      <c r="DE3" s="24"/>
+      <c r="DF3" s="24"/>
+      <c r="DG3" s="24"/>
+      <c r="DH3" s="24"/>
+      <c r="DI3" s="24"/>
+      <c r="DJ3" s="24"/>
+      <c r="DK3" s="24"/>
+      <c r="DL3" s="24"/>
+      <c r="DM3" s="24"/>
+      <c r="DN3" s="24"/>
+      <c r="DO3" s="24"/>
+      <c r="DP3" s="24"/>
+      <c r="DQ3" s="24"/>
+      <c r="DR3" s="24"/>
+      <c r="DS3" s="24"/>
+      <c r="DT3" s="24"/>
+      <c r="DU3" s="24"/>
+      <c r="DV3" s="24"/>
+      <c r="DW3" s="24"/>
+      <c r="DX3" s="24"/>
+      <c r="DY3" s="24"/>
+      <c r="DZ3" s="24"/>
+      <c r="EA3" s="24"/>
+      <c r="EB3" s="24"/>
     </row>
     <row r="4" spans="1:132">
       <c r="A4" s="13"/>
@@ -2554,133 +2764,133 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
-      <c r="CJ4" s="25"/>
-      <c r="CK4" s="25"/>
-      <c r="CL4" s="25"/>
-      <c r="CM4" s="25"/>
-      <c r="CN4" s="25"/>
-      <c r="CO4" s="25"/>
-      <c r="CP4" s="25"/>
-      <c r="CQ4" s="25"/>
-      <c r="CR4" s="25"/>
-      <c r="CS4" s="25"/>
-      <c r="CT4" s="25"/>
-      <c r="CU4" s="25"/>
-      <c r="CV4" s="25"/>
-      <c r="CW4" s="25"/>
-      <c r="CX4" s="25"/>
-      <c r="CY4" s="25"/>
-      <c r="CZ4" s="25"/>
-      <c r="DA4" s="25"/>
-      <c r="DB4" s="25"/>
-      <c r="DC4" s="25"/>
-      <c r="DD4" s="25"/>
-      <c r="DE4" s="25"/>
-      <c r="DF4" s="25"/>
-      <c r="DG4" s="25"/>
-      <c r="DH4" s="25"/>
-      <c r="DI4" s="25"/>
-      <c r="DJ4" s="25"/>
-      <c r="DK4" s="25"/>
-      <c r="DL4" s="25"/>
-      <c r="DM4" s="25"/>
-      <c r="DN4" s="25"/>
-      <c r="DO4" s="25"/>
-      <c r="DP4" s="25"/>
-      <c r="DQ4" s="25"/>
-      <c r="DR4" s="25"/>
-      <c r="DS4" s="25"/>
-      <c r="DT4" s="25"/>
-      <c r="DU4" s="25"/>
-      <c r="DV4" s="25"/>
-      <c r="DW4" s="25"/>
-      <c r="DX4" s="25"/>
-      <c r="DY4" s="25"/>
-      <c r="DZ4" s="25"/>
-      <c r="EA4" s="25"/>
-      <c r="EB4" s="25"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="30"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="24"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="24"/>
+      <c r="BT4" s="24"/>
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="24"/>
+      <c r="BW4" s="24"/>
+      <c r="BX4" s="28"/>
+      <c r="BY4" s="24"/>
+      <c r="BZ4" s="24"/>
+      <c r="CA4" s="24"/>
+      <c r="CB4" s="24"/>
+      <c r="CC4" s="24"/>
+      <c r="CD4" s="24"/>
+      <c r="CE4" s="24"/>
+      <c r="CF4" s="24"/>
+      <c r="CG4" s="24"/>
+      <c r="CH4" s="24"/>
+      <c r="CI4" s="24"/>
+      <c r="CJ4" s="24"/>
+      <c r="CK4" s="24"/>
+      <c r="CL4" s="24"/>
+      <c r="CM4" s="24"/>
+      <c r="CN4" s="24"/>
+      <c r="CO4" s="24"/>
+      <c r="CP4" s="24"/>
+      <c r="CQ4" s="24"/>
+      <c r="CR4" s="24"/>
+      <c r="CS4" s="24"/>
+      <c r="CT4" s="24"/>
+      <c r="CU4" s="24"/>
+      <c r="CV4" s="24"/>
+      <c r="CW4" s="24"/>
+      <c r="CX4" s="24"/>
+      <c r="CY4" s="24"/>
+      <c r="CZ4" s="24"/>
+      <c r="DA4" s="24"/>
+      <c r="DB4" s="24"/>
+      <c r="DC4" s="24"/>
+      <c r="DD4" s="24"/>
+      <c r="DE4" s="24"/>
+      <c r="DF4" s="24"/>
+      <c r="DG4" s="24"/>
+      <c r="DH4" s="24"/>
+      <c r="DI4" s="24"/>
+      <c r="DJ4" s="24"/>
+      <c r="DK4" s="24"/>
+      <c r="DL4" s="24"/>
+      <c r="DM4" s="24"/>
+      <c r="DN4" s="24"/>
+      <c r="DO4" s="24"/>
+      <c r="DP4" s="24"/>
+      <c r="DQ4" s="24"/>
+      <c r="DR4" s="24"/>
+      <c r="DS4" s="24"/>
+      <c r="DT4" s="24"/>
+      <c r="DU4" s="24"/>
+      <c r="DV4" s="24"/>
+      <c r="DW4" s="24"/>
+      <c r="DX4" s="24"/>
+      <c r="DY4" s="24"/>
+      <c r="DZ4" s="24"/>
+      <c r="EA4" s="24"/>
+      <c r="EB4" s="24"/>
     </row>
     <row r="5" ht="13.05" customHeight="1" spans="1:132">
       <c r="A5" s="13"/>
@@ -2690,406 +2900,406 @@
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="25"/>
-      <c r="BG5" s="25"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="25"/>
-      <c r="BL5" s="25"/>
-      <c r="BM5" s="25"/>
-      <c r="BN5" s="25"/>
-      <c r="BO5" s="25"/>
-      <c r="BP5" s="25"/>
-      <c r="BQ5" s="25"/>
-      <c r="BR5" s="25"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="25"/>
-      <c r="BV5" s="25"/>
-      <c r="BW5" s="25"/>
-      <c r="BX5" s="25"/>
-      <c r="BY5" s="25"/>
-      <c r="BZ5" s="25"/>
-      <c r="CA5" s="25"/>
-      <c r="CB5" s="25"/>
-      <c r="CC5" s="25"/>
-      <c r="CD5" s="25"/>
-      <c r="CE5" s="25"/>
-      <c r="CF5" s="25"/>
-      <c r="CG5" s="25"/>
-      <c r="CH5" s="25"/>
-      <c r="CI5" s="25"/>
-      <c r="CJ5" s="25"/>
-      <c r="CK5" s="25"/>
-      <c r="CL5" s="25"/>
-      <c r="CM5" s="25"/>
-      <c r="CN5" s="25"/>
-      <c r="CO5" s="25"/>
-      <c r="CP5" s="25"/>
-      <c r="CQ5" s="25"/>
-      <c r="CR5" s="25"/>
-      <c r="CS5" s="25"/>
-      <c r="CT5" s="25"/>
-      <c r="CU5" s="25"/>
-      <c r="CV5" s="25"/>
-      <c r="CW5" s="25"/>
-      <c r="CX5" s="25"/>
-      <c r="CY5" s="25"/>
-      <c r="CZ5" s="25"/>
-      <c r="DA5" s="25"/>
-      <c r="DB5" s="25"/>
-      <c r="DC5" s="25"/>
-      <c r="DD5" s="25"/>
-      <c r="DE5" s="25"/>
-      <c r="DF5" s="25"/>
-      <c r="DG5" s="25"/>
-      <c r="DH5" s="25"/>
-      <c r="DI5" s="25"/>
-      <c r="DJ5" s="25"/>
-      <c r="DK5" s="25"/>
-      <c r="DL5" s="25"/>
-      <c r="DM5" s="25"/>
-      <c r="DN5" s="25"/>
-      <c r="DO5" s="25"/>
-      <c r="DP5" s="25"/>
-      <c r="DQ5" s="25"/>
-      <c r="DR5" s="25"/>
-      <c r="DS5" s="25"/>
-      <c r="DT5" s="25"/>
-      <c r="DU5" s="25"/>
-      <c r="DV5" s="25"/>
-      <c r="DW5" s="25"/>
-      <c r="DX5" s="25"/>
-      <c r="DY5" s="25"/>
-      <c r="DZ5" s="25"/>
-      <c r="EA5" s="25"/>
-      <c r="EB5" s="25"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="24"/>
+      <c r="BM5" s="24"/>
+      <c r="BN5" s="24"/>
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="24"/>
+      <c r="BQ5" s="24"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="24"/>
+      <c r="BT5" s="24"/>
+      <c r="BU5" s="24"/>
+      <c r="BV5" s="24"/>
+      <c r="BW5" s="24"/>
+      <c r="BX5" s="24"/>
+      <c r="BY5" s="24"/>
+      <c r="BZ5" s="24"/>
+      <c r="CA5" s="24"/>
+      <c r="CB5" s="24"/>
+      <c r="CC5" s="24"/>
+      <c r="CD5" s="24"/>
+      <c r="CE5" s="24"/>
+      <c r="CF5" s="24"/>
+      <c r="CG5" s="24"/>
+      <c r="CH5" s="24"/>
+      <c r="CI5" s="24"/>
+      <c r="CJ5" s="24"/>
+      <c r="CK5" s="24"/>
+      <c r="CL5" s="24"/>
+      <c r="CM5" s="24"/>
+      <c r="CN5" s="24"/>
+      <c r="CO5" s="24"/>
+      <c r="CP5" s="24"/>
+      <c r="CQ5" s="24"/>
+      <c r="CR5" s="24"/>
+      <c r="CS5" s="24"/>
+      <c r="CT5" s="24"/>
+      <c r="CU5" s="24"/>
+      <c r="CV5" s="24"/>
+      <c r="CW5" s="24"/>
+      <c r="CX5" s="24"/>
+      <c r="CY5" s="24"/>
+      <c r="CZ5" s="24"/>
+      <c r="DA5" s="24"/>
+      <c r="DB5" s="24"/>
+      <c r="DC5" s="24"/>
+      <c r="DD5" s="24"/>
+      <c r="DE5" s="24"/>
+      <c r="DF5" s="24"/>
+      <c r="DG5" s="24"/>
+      <c r="DH5" s="24"/>
+      <c r="DI5" s="24"/>
+      <c r="DJ5" s="24"/>
+      <c r="DK5" s="24"/>
+      <c r="DL5" s="24"/>
+      <c r="DM5" s="24"/>
+      <c r="DN5" s="24"/>
+      <c r="DO5" s="24"/>
+      <c r="DP5" s="24"/>
+      <c r="DQ5" s="24"/>
+      <c r="DR5" s="24"/>
+      <c r="DS5" s="24"/>
+      <c r="DT5" s="24"/>
+      <c r="DU5" s="24"/>
+      <c r="DV5" s="24"/>
+      <c r="DW5" s="24"/>
+      <c r="DX5" s="24"/>
+      <c r="DY5" s="24"/>
+      <c r="DZ5" s="24"/>
+      <c r="EA5" s="24"/>
+      <c r="EB5" s="24"/>
     </row>
     <row r="6" spans="1:132">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="25"/>
-      <c r="BE6" s="25"/>
-      <c r="BF6" s="25"/>
-      <c r="BG6" s="25"/>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="25"/>
-      <c r="BJ6" s="25"/>
-      <c r="BK6" s="25"/>
-      <c r="BL6" s="25"/>
-      <c r="BM6" s="25"/>
-      <c r="BN6" s="25"/>
-      <c r="BO6" s="25"/>
-      <c r="BP6" s="25"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="25"/>
-      <c r="BX6" s="25"/>
-      <c r="BY6" s="25"/>
-      <c r="BZ6" s="25"/>
-      <c r="CA6" s="25"/>
-      <c r="CB6" s="25"/>
-      <c r="CC6" s="25"/>
-      <c r="CD6" s="25"/>
-      <c r="CE6" s="25"/>
-      <c r="CF6" s="25"/>
-      <c r="CG6" s="25"/>
-      <c r="CH6" s="25"/>
-      <c r="CI6" s="25"/>
-      <c r="CJ6" s="25"/>
-      <c r="CK6" s="25"/>
-      <c r="CL6" s="25"/>
-      <c r="CM6" s="25"/>
-      <c r="CN6" s="25"/>
-      <c r="CO6" s="25"/>
-      <c r="CP6" s="25"/>
-      <c r="CQ6" s="25"/>
-      <c r="CR6" s="25"/>
-      <c r="CS6" s="25"/>
-      <c r="CT6" s="25"/>
-      <c r="CU6" s="25"/>
-      <c r="CV6" s="25"/>
-      <c r="CW6" s="25"/>
-      <c r="CX6" s="25"/>
-      <c r="CY6" s="25"/>
-      <c r="CZ6" s="25"/>
-      <c r="DA6" s="25"/>
-      <c r="DB6" s="25"/>
-      <c r="DC6" s="25"/>
-      <c r="DD6" s="25"/>
-      <c r="DE6" s="25"/>
-      <c r="DF6" s="25"/>
-      <c r="DG6" s="25"/>
-      <c r="DH6" s="25"/>
-      <c r="DI6" s="25"/>
-      <c r="DJ6" s="25"/>
-      <c r="DK6" s="25"/>
-      <c r="DL6" s="25"/>
-      <c r="DM6" s="25"/>
-      <c r="DN6" s="25"/>
-      <c r="DO6" s="25"/>
-      <c r="DP6" s="25"/>
-      <c r="DQ6" s="25"/>
-      <c r="DR6" s="25"/>
-      <c r="DS6" s="25"/>
-      <c r="DT6" s="25"/>
-      <c r="DU6" s="25"/>
-      <c r="DV6" s="25"/>
-      <c r="DW6" s="25"/>
-      <c r="DX6" s="25"/>
-      <c r="DY6" s="25"/>
-      <c r="DZ6" s="25"/>
-      <c r="EA6" s="25"/>
-      <c r="EB6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="24"/>
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="24"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="24"/>
+      <c r="CA6" s="24"/>
+      <c r="CB6" s="24"/>
+      <c r="CC6" s="24"/>
+      <c r="CD6" s="24"/>
+      <c r="CE6" s="24"/>
+      <c r="CF6" s="24"/>
+      <c r="CG6" s="24"/>
+      <c r="CH6" s="24"/>
+      <c r="CI6" s="24"/>
+      <c r="CJ6" s="24"/>
+      <c r="CK6" s="24"/>
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="24"/>
+      <c r="CN6" s="24"/>
+      <c r="CO6" s="24"/>
+      <c r="CP6" s="24"/>
+      <c r="CQ6" s="24"/>
+      <c r="CR6" s="24"/>
+      <c r="CS6" s="24"/>
+      <c r="CT6" s="24"/>
+      <c r="CU6" s="24"/>
+      <c r="CV6" s="24"/>
+      <c r="CW6" s="24"/>
+      <c r="CX6" s="24"/>
+      <c r="CY6" s="24"/>
+      <c r="CZ6" s="24"/>
+      <c r="DA6" s="24"/>
+      <c r="DB6" s="24"/>
+      <c r="DC6" s="24"/>
+      <c r="DD6" s="24"/>
+      <c r="DE6" s="24"/>
+      <c r="DF6" s="24"/>
+      <c r="DG6" s="24"/>
+      <c r="DH6" s="24"/>
+      <c r="DI6" s="24"/>
+      <c r="DJ6" s="24"/>
+      <c r="DK6" s="24"/>
+      <c r="DL6" s="24"/>
+      <c r="DM6" s="24"/>
+      <c r="DN6" s="24"/>
+      <c r="DO6" s="24"/>
+      <c r="DP6" s="24"/>
+      <c r="DQ6" s="24"/>
+      <c r="DR6" s="24"/>
+      <c r="DS6" s="24"/>
+      <c r="DT6" s="24"/>
+      <c r="DU6" s="24"/>
+      <c r="DV6" s="24"/>
+      <c r="DW6" s="24"/>
+      <c r="DX6" s="24"/>
+      <c r="DY6" s="24"/>
+      <c r="DZ6" s="24"/>
+      <c r="EA6" s="24"/>
+      <c r="EB6" s="24"/>
     </row>
     <row r="7" spans="1:132">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="25"/>
-      <c r="BV7" s="25"/>
-      <c r="BW7" s="25"/>
-      <c r="BX7" s="25"/>
-      <c r="BY7" s="25"/>
-      <c r="BZ7" s="25"/>
-      <c r="CA7" s="25"/>
-      <c r="CB7" s="25"/>
-      <c r="CC7" s="25"/>
-      <c r="CD7" s="25"/>
-      <c r="CE7" s="25"/>
-      <c r="CF7" s="25"/>
-      <c r="CG7" s="25"/>
-      <c r="CH7" s="25"/>
-      <c r="CI7" s="25"/>
-      <c r="CJ7" s="25"/>
-      <c r="CK7" s="25"/>
-      <c r="CL7" s="25"/>
-      <c r="CM7" s="25"/>
-      <c r="CN7" s="25"/>
-      <c r="CO7" s="25"/>
-      <c r="CP7" s="25"/>
-      <c r="CQ7" s="25"/>
-      <c r="CR7" s="25"/>
-      <c r="CS7" s="25"/>
-      <c r="CT7" s="25"/>
-      <c r="CU7" s="25"/>
-      <c r="CV7" s="25"/>
-      <c r="CW7" s="25"/>
-      <c r="CX7" s="25"/>
-      <c r="CY7" s="25"/>
-      <c r="CZ7" s="25"/>
-      <c r="DA7" s="25"/>
-      <c r="DB7" s="25"/>
-      <c r="DC7" s="25"/>
-      <c r="DD7" s="25"/>
-      <c r="DE7" s="25"/>
-      <c r="DF7" s="25"/>
-      <c r="DG7" s="25"/>
-      <c r="DH7" s="25"/>
-      <c r="DI7" s="25"/>
-      <c r="DJ7" s="25"/>
-      <c r="DK7" s="25"/>
-      <c r="DL7" s="25"/>
-      <c r="DM7" s="25"/>
-      <c r="DN7" s="25"/>
-      <c r="DO7" s="25"/>
-      <c r="DP7" s="25"/>
-      <c r="DQ7" s="25"/>
-      <c r="DR7" s="25"/>
-      <c r="DS7" s="25"/>
-      <c r="DT7" s="25"/>
-      <c r="DU7" s="25"/>
-      <c r="DV7" s="25"/>
-      <c r="DW7" s="25"/>
-      <c r="DX7" s="25"/>
-      <c r="DY7" s="25"/>
-      <c r="DZ7" s="25"/>
-      <c r="EA7" s="25"/>
-      <c r="EB7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="24"/>
+      <c r="BN7" s="24"/>
+      <c r="BO7" s="24"/>
+      <c r="BP7" s="24"/>
+      <c r="BQ7" s="24"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="24"/>
+      <c r="BW7" s="24"/>
+      <c r="BX7" s="24"/>
+      <c r="BY7" s="24"/>
+      <c r="BZ7" s="24"/>
+      <c r="CA7" s="24"/>
+      <c r="CB7" s="24"/>
+      <c r="CC7" s="24"/>
+      <c r="CD7" s="24"/>
+      <c r="CE7" s="24"/>
+      <c r="CF7" s="24"/>
+      <c r="CG7" s="24"/>
+      <c r="CH7" s="24"/>
+      <c r="CI7" s="24"/>
+      <c r="CJ7" s="24"/>
+      <c r="CK7" s="24"/>
+      <c r="CL7" s="24"/>
+      <c r="CM7" s="24"/>
+      <c r="CN7" s="24"/>
+      <c r="CO7" s="24"/>
+      <c r="CP7" s="24"/>
+      <c r="CQ7" s="24"/>
+      <c r="CR7" s="24"/>
+      <c r="CS7" s="24"/>
+      <c r="CT7" s="24"/>
+      <c r="CU7" s="24"/>
+      <c r="CV7" s="24"/>
+      <c r="CW7" s="24"/>
+      <c r="CX7" s="24"/>
+      <c r="CY7" s="24"/>
+      <c r="CZ7" s="24"/>
+      <c r="DA7" s="24"/>
+      <c r="DB7" s="24"/>
+      <c r="DC7" s="24"/>
+      <c r="DD7" s="24"/>
+      <c r="DE7" s="24"/>
+      <c r="DF7" s="24"/>
+      <c r="DG7" s="24"/>
+      <c r="DH7" s="24"/>
+      <c r="DI7" s="24"/>
+      <c r="DJ7" s="24"/>
+      <c r="DK7" s="24"/>
+      <c r="DL7" s="24"/>
+      <c r="DM7" s="24"/>
+      <c r="DN7" s="24"/>
+      <c r="DO7" s="24"/>
+      <c r="DP7" s="24"/>
+      <c r="DQ7" s="24"/>
+      <c r="DR7" s="24"/>
+      <c r="DS7" s="24"/>
+      <c r="DT7" s="24"/>
+      <c r="DU7" s="24"/>
+      <c r="DV7" s="24"/>
+      <c r="DW7" s="24"/>
+      <c r="DX7" s="24"/>
+      <c r="DY7" s="24"/>
+      <c r="DZ7" s="24"/>
+      <c r="EA7" s="24"/>
+      <c r="EB7" s="24"/>
     </row>
     <row r="8" spans="1:132">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3219,74 +3429,78 @@
       <c r="EB8" s="14"/>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
+      <c r="A9" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3347,9 +3561,13 @@
       <c r="BI10" s="12"/>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -3476,127 +3694,127 @@
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
     </row>
     <row r="15" spans="1:16384">
       <c r="A15" s="13"/>
@@ -3616,14 +3834,14 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
@@ -19988,253 +20206,253 @@
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
     </row>
     <row r="19" spans="1:61">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="27"/>
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="12"/>
@@ -20492,442 +20710,442 @@
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-      <c r="AS24" s="24"/>
-      <c r="AT24" s="24"/>
-      <c r="AU24" s="24"/>
-      <c r="AV24" s="24"/>
-      <c r="AW24" s="24"/>
-      <c r="AX24" s="24"/>
-      <c r="AY24" s="24"/>
-      <c r="AZ24" s="24"/>
-      <c r="BA24" s="24"/>
-      <c r="BB24" s="24"/>
-      <c r="BC24" s="24"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="24"/>
-      <c r="BF24" s="24"/>
-      <c r="BG24" s="24"/>
-      <c r="BH24" s="24"/>
-      <c r="BI24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="23"/>
+      <c r="AT24" s="23"/>
+      <c r="AU24" s="23"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="23"/>
+      <c r="BI24" s="23"/>
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
-      <c r="AY25" s="25"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="25"/>
-      <c r="BB25" s="25"/>
-      <c r="BC25" s="25"/>
-      <c r="BD25" s="25"/>
-      <c r="BE25" s="25"/>
-      <c r="BF25" s="25"/>
-      <c r="BG25" s="25"/>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="24"/>
+      <c r="BI25" s="24"/>
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
-      <c r="BF26" s="24"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="24"/>
-      <c r="AS27" s="24"/>
-      <c r="AT27" s="24"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="24"/>
-      <c r="AX27" s="24"/>
-      <c r="AY27" s="24"/>
-      <c r="AZ27" s="24"/>
-      <c r="BA27" s="24"/>
-      <c r="BB27" s="24"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="24"/>
-      <c r="BF27" s="24"/>
-      <c r="BG27" s="24"/>
-      <c r="BH27" s="24"/>
-      <c r="BI27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="23"/>
+      <c r="AT27" s="23"/>
+      <c r="AU27" s="23"/>
+      <c r="AV27" s="23"/>
+      <c r="AW27" s="23"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="23"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="23"/>
+      <c r="BD27" s="23"/>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="24"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="24"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="24"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="24"/>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="23"/>
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="23"/>
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
     </row>
     <row r="29" spans="1:61">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
-      <c r="AT29" s="24"/>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="24"/>
-      <c r="AX29" s="24"/>
-      <c r="AY29" s="24"/>
-      <c r="AZ29" s="24"/>
-      <c r="BA29" s="24"/>
-      <c r="BB29" s="24"/>
-      <c r="BC29" s="24"/>
-      <c r="BD29" s="24"/>
-      <c r="BE29" s="24"/>
-      <c r="BF29" s="24"/>
-      <c r="BG29" s="24"/>
-      <c r="BH29" s="24"/>
-      <c r="BI29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="23"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="23"/>
+      <c r="AZ29" s="23"/>
+      <c r="BA29" s="23"/>
+      <c r="BB29" s="23"/>
+      <c r="BC29" s="23"/>
+      <c r="BD29" s="23"/>
+      <c r="BE29" s="23"/>
+      <c r="BF29" s="23"/>
+      <c r="BG29" s="23"/>
+      <c r="BH29" s="23"/>
+      <c r="BI29" s="23"/>
     </row>
     <row r="30" spans="1:61">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="28"/>
-      <c r="AU30" s="28"/>
-      <c r="AV30" s="28"/>
-      <c r="AW30" s="28"/>
-      <c r="AX30" s="28"/>
-      <c r="AY30" s="28"/>
-      <c r="AZ30" s="28"/>
-      <c r="BA30" s="28"/>
-      <c r="BB30" s="28"/>
-      <c r="BC30" s="28"/>
-      <c r="BD30" s="28"/>
-      <c r="BE30" s="28"/>
-      <c r="BF30" s="28"/>
-      <c r="BG30" s="28"/>
-      <c r="BH30" s="28"/>
-      <c r="BI30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
     </row>
     <row r="31" spans="1:61">
       <c r="A31" s="12"/>
@@ -21185,442 +21403,442 @@
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AK35" s="24"/>
-      <c r="AL35" s="24"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="24"/>
-      <c r="AP35" s="24"/>
-      <c r="AQ35" s="24"/>
-      <c r="AR35" s="24"/>
-      <c r="AS35" s="24"/>
-      <c r="AT35" s="24"/>
-      <c r="AU35" s="24"/>
-      <c r="AV35" s="24"/>
-      <c r="AW35" s="24"/>
-      <c r="AX35" s="24"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
-      <c r="BA35" s="24"/>
-      <c r="BB35" s="24"/>
-      <c r="BC35" s="24"/>
-      <c r="BD35" s="24"/>
-      <c r="BE35" s="24"/>
-      <c r="BF35" s="24"/>
-      <c r="BG35" s="24"/>
-      <c r="BH35" s="24"/>
-      <c r="BI35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23"/>
+      <c r="AV35" s="23"/>
+      <c r="AW35" s="23"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="23"/>
+      <c r="AZ35" s="23"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="23"/>
+      <c r="BC35" s="23"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
     </row>
     <row r="36" spans="1:61">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="25"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="25"/>
-      <c r="AZ36" s="25"/>
-      <c r="BA36" s="25"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="25"/>
-      <c r="BD36" s="25"/>
-      <c r="BE36" s="25"/>
-      <c r="BF36" s="25"/>
-      <c r="BG36" s="25"/>
-      <c r="BH36" s="25"/>
-      <c r="BI36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="24"/>
+      <c r="AT36" s="24"/>
+      <c r="AU36" s="24"/>
+      <c r="AV36" s="24"/>
+      <c r="AW36" s="24"/>
+      <c r="AX36" s="24"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="24"/>
+      <c r="BA36" s="24"/>
+      <c r="BB36" s="24"/>
+      <c r="BC36" s="24"/>
+      <c r="BD36" s="24"/>
+      <c r="BE36" s="24"/>
+      <c r="BF36" s="24"/>
+      <c r="BG36" s="24"/>
+      <c r="BH36" s="24"/>
+      <c r="BI36" s="24"/>
     </row>
     <row r="37" spans="1:61">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="24"/>
-      <c r="AW37" s="24"/>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
-      <c r="BA37" s="24"/>
-      <c r="BB37" s="24"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="24"/>
-      <c r="BE37" s="24"/>
-      <c r="BF37" s="24"/>
-      <c r="BG37" s="24"/>
-      <c r="BH37" s="24"/>
-      <c r="BI37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="23"/>
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
+      <c r="BE37" s="23"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BI37" s="23"/>
     </row>
     <row r="38" spans="1:61">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
-      <c r="AT38" s="24"/>
-      <c r="AU38" s="24"/>
-      <c r="AV38" s="24"/>
-      <c r="AW38" s="24"/>
-      <c r="AX38" s="24"/>
-      <c r="AY38" s="24"/>
-      <c r="AZ38" s="24"/>
-      <c r="BA38" s="24"/>
-      <c r="BB38" s="24"/>
-      <c r="BC38" s="24"/>
-      <c r="BD38" s="24"/>
-      <c r="BE38" s="24"/>
-      <c r="BF38" s="24"/>
-      <c r="BG38" s="24"/>
-      <c r="BH38" s="24"/>
-      <c r="BI38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="23"/>
+      <c r="AT38" s="23"/>
+      <c r="AU38" s="23"/>
+      <c r="AV38" s="23"/>
+      <c r="AW38" s="23"/>
+      <c r="AX38" s="23"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="23"/>
+      <c r="BA38" s="23"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
+      <c r="BE38" s="23"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="23"/>
+      <c r="BI38" s="23"/>
     </row>
     <row r="39" spans="1:61">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
-      <c r="AU39" s="24"/>
-      <c r="AV39" s="24"/>
-      <c r="AW39" s="24"/>
-      <c r="AX39" s="24"/>
-      <c r="AY39" s="24"/>
-      <c r="AZ39" s="24"/>
-      <c r="BA39" s="24"/>
-      <c r="BB39" s="24"/>
-      <c r="BC39" s="24"/>
-      <c r="BD39" s="24"/>
-      <c r="BE39" s="24"/>
-      <c r="BF39" s="24"/>
-      <c r="BG39" s="24"/>
-      <c r="BH39" s="24"/>
-      <c r="BI39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
     </row>
     <row r="40" spans="1:61">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="24"/>
-      <c r="AX40" s="24"/>
-      <c r="AY40" s="24"/>
-      <c r="AZ40" s="24"/>
-      <c r="BA40" s="24"/>
-      <c r="BB40" s="24"/>
-      <c r="BC40" s="24"/>
-      <c r="BD40" s="24"/>
-      <c r="BE40" s="24"/>
-      <c r="BF40" s="24"/>
-      <c r="BG40" s="24"/>
-      <c r="BH40" s="24"/>
-      <c r="BI40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="23"/>
+      <c r="AX40" s="23"/>
+      <c r="AY40" s="23"/>
+      <c r="AZ40" s="23"/>
+      <c r="BA40" s="23"/>
+      <c r="BB40" s="23"/>
+      <c r="BC40" s="23"/>
+      <c r="BD40" s="23"/>
+      <c r="BE40" s="23"/>
+      <c r="BF40" s="23"/>
+      <c r="BG40" s="23"/>
+      <c r="BH40" s="23"/>
+      <c r="BI40" s="23"/>
     </row>
     <row r="41" spans="1:61">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28"/>
-      <c r="AN41" s="28"/>
-      <c r="AO41" s="28"/>
-      <c r="AP41" s="28"/>
-      <c r="AQ41" s="28"/>
-      <c r="AR41" s="28"/>
-      <c r="AS41" s="28"/>
-      <c r="AT41" s="28"/>
-      <c r="AU41" s="28"/>
-      <c r="AV41" s="28"/>
-      <c r="AW41" s="28"/>
-      <c r="AX41" s="28"/>
-      <c r="AY41" s="28"/>
-      <c r="AZ41" s="28"/>
-      <c r="BA41" s="28"/>
-      <c r="BB41" s="28"/>
-      <c r="BC41" s="28"/>
-      <c r="BD41" s="28"/>
-      <c r="BE41" s="28"/>
-      <c r="BF41" s="28"/>
-      <c r="BG41" s="28"/>
-      <c r="BH41" s="28"/>
-      <c r="BI41" s="28"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="27"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="27"/>
+      <c r="AQ41" s="27"/>
+      <c r="AR41" s="27"/>
+      <c r="AS41" s="27"/>
+      <c r="AT41" s="27"/>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="27"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="27"/>
+      <c r="BA41" s="27"/>
+      <c r="BB41" s="27"/>
+      <c r="BC41" s="27"/>
+      <c r="BD41" s="27"/>
+      <c r="BE41" s="27"/>
+      <c r="BF41" s="27"/>
+      <c r="BG41" s="27"/>
+      <c r="BH41" s="27"/>
+      <c r="BI41" s="27"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="12"/>
@@ -21714,185 +21932,188 @@
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="24"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="23"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="24"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="23"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="24"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="23"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://beta-ohjobsph.ml/jobs-list" tooltip="http://beta-ohjobsph.ml/jobs-list"/>
-    <hyperlink ref="F2" r:id="rId2" display="info@weboutsourcing-gateway.com"/>
-    <hyperlink ref="AA2" r:id="rId3" display="info@ohjobs.ph"/>
-    <hyperlink ref="D2" r:id="rId4" display="http://beta-ohjobsph.ml/admin" tooltip="http://beta-ohjobsph.ml/admin"/>
-    <hyperlink ref="AH2" r:id="rId5" display="wog.aron@zetmail.com" tooltip="mailto:wog.aron@zetmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://beta-ohjobsph.ml/" tooltip="http://beta-ohjobsph.ml/"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://beta-ohjobsph.ml/admin" tooltip="http://beta-ohjobsph.ml/admin"/>
+    <hyperlink ref="R2" r:id="rId3" display="info@weboutsourcing-gateway.com"/>
+    <hyperlink ref="Y2" r:id="rId4" display="https://www.weboutsourcing-gateway.com/"/>
+    <hyperlink ref="O2" r:id="rId5" display="wog.aron@zetmail.com"/>
+    <hyperlink ref="AW2" r:id="rId6" display="info@ohjobs.ph"/>
+    <hyperlink ref="BD2" r:id="rId5" display="wog.aron@zetmail.com" tooltip="mailto:wog.aron@zetmail.com"/>
+    <hyperlink ref="E2" r:id="rId7" display="https://getnada.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -21909,651 +22130,651 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.4351851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.22222222222222" style="2"/>
+    <col min="1" max="1" width="15.4380952380952" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7809523809524" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.2190476190476" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.552380952381" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.552380952381" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.21904761904762" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:5">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="8" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="9" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>176</v>
+        <v>205</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Input.xlsx
+++ b/Test Data/Input.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="232">
   <si>
     <t>Login</t>
   </si>
@@ -402,6 +402,9 @@
     <t>Jobseeker(Other Information) About Other Information</t>
   </si>
   <si>
+    <t>Employer(Approve Jobseeker) Approve Jobseeker Application Message</t>
+  </si>
+  <si>
     <t>Oh Jobs PH Test Data</t>
   </si>
   <si>
@@ -447,124 +450,133 @@
     <t>qwertyui</t>
   </si>
   <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor.</t>
+  </si>
+  <si>
+    <t>09123456789,09789456123</t>
+  </si>
+  <si>
+    <t>11:00 AM - 08:00 PM</t>
+  </si>
+  <si>
+    <t>6546380</t>
+  </si>
+  <si>
+    <t>https://www.weboutsourcing-gateway.com/</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Saving changes to your profile...</t>
+  </si>
+  <si>
+    <t>IT Application Support</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>Metro Manila</t>
+  </si>
+  <si>
+    <t>Pasig</t>
+  </si>
+  <si>
+    <t>One Corporate Center, Ortigas Center Pasig City</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>Installing and configuring computer hardware, software, systems, networks, printers and scanners</t>
+  </si>
+  <si>
+    <t>1 Year or less</t>
+  </si>
+  <si>
+    <t>Bachelor's / College Degree</t>
+  </si>
+  <si>
+    <t>Hardware and Software Troubleshooting, QA Testing</t>
+  </si>
+  <si>
+    <t>IT Jobs, Fresh Grad</t>
+  </si>
+  <si>
+    <t>Submitting your job post...,Your Job has been submitted. Please wait for Oh! Jobs approval.</t>
+  </si>
+  <si>
+    <t>info@ohjobs.ph</t>
+  </si>
+  <si>
+    <t>secret123Q</t>
+  </si>
+  <si>
+    <t>Sending email notification to Paul Solution ,You have successfully approved the job. The employer will be notified of this action.</t>
+  </si>
+  <si>
+    <t>Aron Paul</t>
+  </si>
+  <si>
+    <t>Braza</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>May,28,1998</t>
+  </si>
+  <si>
+    <t>aronpaulbraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating your Oh Jobs account...Please wait.  ,Your Oh! Jobs PH account has been successfully created! Check your email and confirm to activate your account.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have successfully logged in  </t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Dela Cruz</t>
+  </si>
+  <si>
+    <t>Jan/07/1992</t>
+  </si>
+  <si>
+    <t>Region III,Bulacan,Malolos</t>
+  </si>
+  <si>
+    <t>00123 Malolos, Bulacan</t>
+  </si>
+  <si>
+    <t>Experienced Level</t>
+  </si>
+  <si>
+    <t>College Graduate</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>09789456123</t>
+  </si>
+  <si>
     <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a,</t>
-  </si>
-  <si>
-    <t>09123456789,09789456123</t>
-  </si>
-  <si>
-    <t>11:00 AM - 08:00 PM</t>
-  </si>
-  <si>
-    <t>https://www.weboutsourcing-gateway.com/</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Tokyo, Japan</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Saving changes to your profile...</t>
-  </si>
-  <si>
-    <t>IT Application Support</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Metro Manila</t>
-  </si>
-  <si>
-    <t>Pasig</t>
-  </si>
-  <si>
-    <t>One Corporate Center, Ortigas Center Pasig City</t>
-  </si>
-  <si>
-    <t>20,000</t>
-  </si>
-  <si>
-    <t>Full Time</t>
-  </si>
-  <si>
-    <t>Installing and configuring computer hardware, software, systems, networks, printers and scanners</t>
-  </si>
-  <si>
-    <t>1 Year or less</t>
-  </si>
-  <si>
-    <t>Bachelor's / College Degree</t>
-  </si>
-  <si>
-    <t>Hardware and Software Troubleshooting, QA Testing</t>
-  </si>
-  <si>
-    <t>IT Jobs, Fresh Grad</t>
-  </si>
-  <si>
-    <t>Submitting your job post...,Your Job has been submitted. Please wait for Oh! Jobs approval.</t>
-  </si>
-  <si>
-    <t>info@ohjobs.ph</t>
-  </si>
-  <si>
-    <t>secret123Q</t>
-  </si>
-  <si>
-    <t>Sending email notification to Paul Solution ,You have successfully approved the job. The employer will be notified of this action.</t>
-  </si>
-  <si>
-    <t>Aron Paul</t>
-  </si>
-  <si>
-    <t>Braza</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>May,28,1998</t>
-  </si>
-  <si>
-    <t>aronpaulbraza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating your Oh Jobs account...Please wait.  ,Your Oh! Jobs PH account has been successfully created! Check your email and confirm to activate your account.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have successfully logged in  </t>
-  </si>
-  <si>
-    <t>Juan Pablo</t>
-  </si>
-  <si>
-    <t>Dela Cruz</t>
-  </si>
-  <si>
-    <t>Jan/07/1992</t>
-  </si>
-  <si>
-    <t>Region III,Bulacan,Malolos</t>
-  </si>
-  <si>
-    <t>00123 Malolos, Bulacan</t>
-  </si>
-  <si>
-    <t>Experienced Level</t>
-  </si>
-  <si>
-    <t>College Graduate</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>09789456123</t>
   </si>
   <si>
     <t>Bachelor of Science in Information Technology</t>
@@ -608,6 +620,9 @@
   <si>
     <t>Learn how to locate webelement.
 Create a page object model.</t>
+  </si>
+  <si>
+    <t>We received your application for the [Job Title] position and are interested in discussing your qualifications further. We would like to invite you to interview at our office to discuss the job requirements and learn more about you.</t>
   </si>
   <si>
     <t>End</t>
@@ -840,11 +855,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -893,44 +908,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,33 +923,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -983,9 +960,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,7 +977,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,13 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,7 +1131,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,43 +1239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,61 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,37 +1287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,26 +1316,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,22 +1350,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,6 +1375,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,13 +1416,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,62 +1434,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1483,64 +1498,64 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1622,7 +1637,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
@@ -1952,7 +1967,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS2" sqref="AS2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78095238095238" defaultRowHeight="15"/>
@@ -2022,7 +2037,7 @@
     <col min="133" max="16384" width="8.78095238095238" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:132">
+    <row r="1" ht="60" spans="1:132">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2291,9 @@
       <c r="CI1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CJ1" s="12"/>
+      <c r="CJ1" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="CK1" s="12"/>
       <c r="CL1" s="12"/>
       <c r="CM1" s="12"/>
@@ -2324,261 +2341,263 @@
     </row>
     <row r="2" s="11" customFormat="1" ht="409.5" spans="1:132">
       <c r="A2" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="29">
-        <v>123456789</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="28">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP2" s="29" t="s">
-        <v>90</v>
-      </c>
       <c r="AQ2" s="29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AS2" s="33">
         <f ca="1">(TODAY())</f>
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="AT2" s="33">
         <f ca="1">(TODAY()+DAY(30))</f>
-        <v>43926</v>
+        <v>43931</v>
       </c>
       <c r="AU2" s="32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AV2" s="14"/>
       <c r="AW2" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AX2" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AY2" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AZ2" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BA2" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BB2" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BC2" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="BD2" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BE2" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BF2" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BG2" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BH2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="BI2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ2" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM2" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="BN2" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BO2" s="29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BP2" s="24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BQ2" s="24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BR2" s="24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BS2" s="24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BT2" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BU2" s="24" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="BV2" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BW2" s="24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BX2" s="24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BY2" s="28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BZ2" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="CA2" s="24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="CB2" s="24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="CC2" s="24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CD2" s="24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CE2" s="24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="CF2" s="24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="CG2" s="24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CH2" s="24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="CI2" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="CJ2" s="24"/>
+        <v>155</v>
+      </c>
+      <c r="CJ2" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="CK2" s="24"/>
       <c r="CL2" s="24"/>
       <c r="CM2" s="24"/>
@@ -3430,7 +3449,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3495,11 +3514,11 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -3562,11 +3581,11 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -22142,639 +22161,639 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
